--- a/data/math/math-75.xlsx
+++ b/data/math/math-75.xlsx
@@ -464,7 +464,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>331</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -493,7 +493,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>386</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -522,7 +522,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>444</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -551,7 +551,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>177</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -580,7 +580,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>178</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -609,7 +609,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>320</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -638,7 +638,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>408</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -659,7 +659,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>org.apache.commons.math.stat.Frequency$NaturalComparator</t>
+          <t>org.apache.commons.math.stat.Frequency</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -667,10 +667,15 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr"/>
+          <t>541</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    private static class NaturalComparator&lt;T extends Comparable&lt;T&gt;&gt; implements Comparator&lt;Comparable&lt;T&gt;&gt;, Serializable {
+</t>
+        </is>
+      </c>
       <c r="E9" t="inlineStr">
         <is>
           <t>0.25000</t>
@@ -683,7 +688,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>org.apache.commons.math.stat.Frequency$NaturalComparator</t>
+          <t>org.apache.commons.math.stat.Frequency</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -691,10 +696,15 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr"/>
+          <t>561</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            return o1.compareTo((T) o2);
+</t>
+        </is>
+      </c>
       <c r="E10" t="inlineStr">
         <is>
           <t>0.25000</t>
@@ -715,7 +725,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>142</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -744,7 +754,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>218</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -773,7 +783,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>251</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -802,7 +812,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>316</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -831,7 +841,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>317</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -860,7 +870,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>385</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -889,7 +899,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>388</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -918,7 +928,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>389</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -947,7 +957,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>390</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -976,7 +986,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>392</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1005,7 +1015,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>395</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1034,7 +1044,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>396</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1063,7 +1073,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>397</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1092,7 +1102,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>401</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1121,7 +1131,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>403</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1150,7 +1160,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>407</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1179,7 +1189,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>495</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1208,7 +1218,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>159</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1237,7 +1247,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>215</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1266,7 +1276,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>216</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1295,7 +1305,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>217</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1324,7 +1334,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>220</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1353,7 +1363,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>244</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1382,7 +1392,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>247</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1411,7 +1421,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>249</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1440,7 +1450,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>250</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1469,7 +1479,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>255</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1498,7 +1508,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>256</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1527,7 +1537,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>382</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1556,7 +1566,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>491</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1585,7 +1595,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>492</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1614,7 +1624,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>133</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1643,7 +1653,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>134</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1672,7 +1682,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>138</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1701,7 +1711,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>139</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1730,7 +1740,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>140</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1759,7 +1769,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>149</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1788,7 +1798,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>150</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1817,7 +1827,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>158</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1846,7 +1856,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>59</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -1875,7 +1885,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>60</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -1904,7 +1914,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>61</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -1933,7 +1943,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>69</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -1962,7 +1972,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>70</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -1991,7 +2001,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>71</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2020,7 +2030,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>81</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2049,7 +2059,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>82</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2078,7 +2088,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>83</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2107,7 +2117,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>84</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2136,7 +2146,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>85</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2165,7 +2175,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>86</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2194,7 +2204,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>87</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2223,7 +2233,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>88</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2252,7 +2262,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>89</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2281,7 +2291,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>90</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2310,7 +2320,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>91</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2339,7 +2349,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>92</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2368,7 +2378,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>93</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2397,7 +2407,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>94</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2426,7 +2436,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>95</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2455,7 +2465,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>96</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2484,7 +2494,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>113</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2513,7 +2523,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>114</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2542,7 +2552,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>116</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2571,7 +2581,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>120</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2600,7 +2610,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>135</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2629,7 +2639,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>144</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2658,7 +2668,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>146</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2687,7 +2697,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>168</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2716,7 +2726,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>169</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2745,7 +2755,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>186</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -2774,7 +2784,7 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>187</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -2803,7 +2813,7 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>191</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -2832,7 +2842,7 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>192</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -2861,7 +2871,7 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>204</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -2890,7 +2900,7 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>233</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -2919,7 +2929,7 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>86</t>
+          <t>245</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -2948,7 +2958,7 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>253</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -2977,7 +2987,7 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>266</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -3006,7 +3016,7 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>276</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -3035,7 +3045,7 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>286</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -3064,7 +3074,7 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>303</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -3079,7 +3089,7 @@
         </is>
       </c>
       <c r="F92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93">
@@ -3093,7 +3103,7 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>318</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -3122,7 +3132,7 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>342</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -3151,7 +3161,7 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>94</t>
+          <t>353</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -3180,7 +3190,7 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>369</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -3209,7 +3219,7 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>383</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -3238,7 +3248,7 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>97</t>
+          <t>399</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -3267,7 +3277,7 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>98</t>
+          <t>400</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -3296,7 +3306,7 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>404</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -3325,7 +3335,7 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>411</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -3354,7 +3364,7 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>101</t>
+          <t>412</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -3383,7 +3393,7 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>102</t>
+          <t>413</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -3412,7 +3422,7 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>103</t>
+          <t>414</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -3441,7 +3451,7 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>104</t>
+          <t>415</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -3470,7 +3480,7 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>105</t>
+          <t>417</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -3499,7 +3509,7 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>106</t>
+          <t>419</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -3528,7 +3538,7 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>107</t>
+          <t>420</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -3557,7 +3567,7 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>108</t>
+          <t>432</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -3586,7 +3596,7 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>109</t>
+          <t>456</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -3615,7 +3625,7 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>110</t>
+          <t>475</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -3644,7 +3654,7 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>493</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
@@ -3673,7 +3683,7 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>112</t>
+          <t>508</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
@@ -3702,7 +3712,7 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>113</t>
+          <t>521</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
@@ -3731,7 +3741,7 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>114</t>
+          <t>534</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
@@ -3760,7 +3770,7 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>115</t>
+          <t>568</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -3789,7 +3799,7 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>116</t>
+          <t>569</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
@@ -3818,7 +3828,7 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>117</t>
+          <t>570</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
@@ -3847,7 +3857,7 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>118</t>
+          <t>572</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
@@ -3876,7 +3886,7 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>119</t>
+          <t>578</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
@@ -3905,7 +3915,7 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>579</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
@@ -3934,7 +3944,7 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>121</t>
+          <t>580</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
@@ -3963,7 +3973,7 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>122</t>
+          <t>581</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
@@ -3992,7 +4002,7 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>123</t>
+          <t>582</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
@@ -4021,7 +4031,7 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>124</t>
+          <t>583</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
@@ -4050,7 +4060,7 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>584</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
@@ -4079,7 +4089,7 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>126</t>
+          <t>585</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
@@ -4108,7 +4118,7 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>127</t>
+          <t>586</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
@@ -4137,7 +4147,7 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>128</t>
+          <t>587</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
@@ -4166,7 +4176,7 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>129</t>
+          <t>588</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
@@ -4195,7 +4205,7 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>130</t>
+          <t>589</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
@@ -4224,7 +4234,7 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>131</t>
+          <t>590</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
